--- a/QuestionBank_Eng & Apti (July 19).xlsx
+++ b/QuestionBank_Eng & Apti (July 19).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
@@ -11,7 +11,7 @@
     <sheet name="MCQ" sheetId="1" r:id="rId2"/>
     <sheet name="ReferencedData" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -5606,8 +5606,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5668,7 +5668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5686,6 +5686,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5779,7 +5782,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -5814,7 +5816,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5990,14 +5991,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="103.42578125" style="6" customWidth="1"/>
@@ -6006,27 +6007,27 @@
     <col min="5" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="21">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="21">
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -6034,22 +6035,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="9">
         <v>2</v>
       </c>
@@ -6057,17 +6058,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="9">
         <v>3</v>
       </c>
@@ -6075,57 +6076,57 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="B16" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2">
       <c r="B17" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" ht="30">
       <c r="B18" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2">
       <c r="B19" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" ht="21" customHeight="1">
       <c r="B20" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2">
       <c r="B21" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2">
       <c r="B23" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2">
       <c r="B24" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" ht="30">
       <c r="B25" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" ht="30">
       <c r="B26" s="6" t="s">
         <v>22</v>
       </c>
@@ -6137,14 +6138,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S610"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A489" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155:A501"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -6158,7 +6159,7 @@
     <col min="19" max="19" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -6217,7 +6218,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6233,7 +6234,7 @@
       <c r="E2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="10" t="s">
         <v>98</v>
       </c>
       <c r="G2" s="1">
@@ -6276,7 +6277,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6335,7 +6336,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6394,7 +6395,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6453,7 +6454,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6512,7 +6513,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6571,7 +6572,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6630,7 +6631,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6689,7 +6690,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6748,7 +6749,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6807,7 +6808,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6866,7 +6867,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6925,7 +6926,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6984,7 +6985,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7043,7 +7044,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7102,7 +7103,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7161,7 +7162,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7220,7 +7221,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7279,7 +7280,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7338,7 +7339,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7397,7 +7398,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -7456,7 +7457,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -7515,7 +7516,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -7574,7 +7575,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -7633,7 +7634,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -7692,7 +7693,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -7751,7 +7752,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -7810,7 +7811,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -7869,7 +7870,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -7928,7 +7929,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -7987,7 +7988,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -8046,7 +8047,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -8105,7 +8106,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -8164,7 +8165,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -8223,7 +8224,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -8282,7 +8283,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -8341,7 +8342,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -8400,7 +8401,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -8459,7 +8460,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -8518,7 +8519,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -8577,7 +8578,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -8636,7 +8637,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -8695,7 +8696,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -8754,7 +8755,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -8813,7 +8814,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -8872,7 +8873,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -8931,7 +8932,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -8990,7 +8991,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -9049,7 +9050,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -9108,7 +9109,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -9167,7 +9168,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -9226,7 +9227,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -9285,7 +9286,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -9344,7 +9345,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -9403,7 +9404,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -9462,7 +9463,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -9521,7 +9522,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -9580,7 +9581,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -9639,7 +9640,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -9698,7 +9699,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -9757,7 +9758,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -9816,7 +9817,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -9875,7 +9876,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -9934,7 +9935,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -9993,7 +9994,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -10052,7 +10053,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -10111,7 +10112,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -10170,7 +10171,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -10229,7 +10230,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -10288,7 +10289,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -10347,7 +10348,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -10406,7 +10407,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -10465,7 +10466,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -10524,7 +10525,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -10583,7 +10584,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -10642,7 +10643,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -10701,7 +10702,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -10760,7 +10761,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -10819,7 +10820,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -10878,7 +10879,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -10937,7 +10938,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -10996,7 +10997,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -11055,7 +11056,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -11114,7 +11115,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -11173,7 +11174,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -11232,7 +11233,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -11291,7 +11292,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -11350,7 +11351,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -11409,7 +11410,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -11468,7 +11469,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -11527,7 +11528,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -11586,7 +11587,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -11645,7 +11646,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -11704,7 +11705,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -11763,7 +11764,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -11822,7 +11823,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -11881,7 +11882,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -11940,7 +11941,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -11999,7 +12000,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -12058,7 +12059,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -12117,7 +12118,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -12176,7 +12177,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -12235,7 +12236,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -12294,7 +12295,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -12353,7 +12354,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -12412,7 +12413,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -12471,7 +12472,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -12530,7 +12531,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -12589,7 +12590,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -12648,7 +12649,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -12707,7 +12708,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -12766,7 +12767,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -12825,7 +12826,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -12884,7 +12885,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -12943,7 +12944,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -13002,7 +13003,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -13061,7 +13062,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -13120,7 +13121,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -13179,7 +13180,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -13238,7 +13239,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -13297,7 +13298,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -13356,7 +13357,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -13415,7 +13416,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -13474,7 +13475,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -13533,7 +13534,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -13592,7 +13593,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -13651,7 +13652,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -13710,7 +13711,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -13769,7 +13770,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -13828,7 +13829,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -13887,7 +13888,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -13946,7 +13947,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -14005,7 +14006,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -14064,7 +14065,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -14123,7 +14124,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -14182,7 +14183,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -14241,7 +14242,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -14300,7 +14301,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -14359,7 +14360,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -14418,7 +14419,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -14477,7 +14478,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -14536,7 +14537,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -14595,7 +14596,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -14654,7 +14655,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -14713,7 +14714,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -14772,7 +14773,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -14831,7 +14832,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -14890,7 +14891,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -14949,7 +14950,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -15008,7 +15009,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -15067,7 +15068,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -15126,7 +15127,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -15185,7 +15186,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -15244,7 +15245,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -15303,7 +15304,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -15362,7 +15363,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -15421,7 +15422,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -15480,7 +15481,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -15539,7 +15540,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -15598,7 +15599,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -15657,7 +15658,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -15716,7 +15717,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -15775,7 +15776,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -15834,7 +15835,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -15893,7 +15894,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -15952,7 +15953,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -16011,7 +16012,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -16070,7 +16071,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -16129,7 +16130,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -16188,7 +16189,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -16247,7 +16248,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -16306,7 +16307,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -16365,7 +16366,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -16424,7 +16425,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -16483,7 +16484,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -16542,7 +16543,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -16601,7 +16602,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -16660,7 +16661,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19">
       <c r="A179" s="3">
         <v>178</v>
       </c>
@@ -16719,7 +16720,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19">
       <c r="A180" s="3">
         <v>179</v>
       </c>
@@ -16778,7 +16779,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19">
       <c r="A181" s="3">
         <v>180</v>
       </c>
@@ -16837,7 +16838,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19">
       <c r="A182" s="3">
         <v>181</v>
       </c>
@@ -16896,7 +16897,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19">
       <c r="A183" s="3">
         <v>182</v>
       </c>
@@ -16955,7 +16956,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19">
       <c r="A184" s="3">
         <v>183</v>
       </c>
@@ -17014,7 +17015,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19">
       <c r="A185" s="3">
         <v>184</v>
       </c>
@@ -17073,7 +17074,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19">
       <c r="A186" s="3">
         <v>185</v>
       </c>
@@ -17132,7 +17133,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19">
       <c r="A187" s="3">
         <v>186</v>
       </c>
@@ -17191,7 +17192,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19">
       <c r="A188" s="3">
         <v>187</v>
       </c>
@@ -17250,7 +17251,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19">
       <c r="A189" s="3">
         <v>188</v>
       </c>
@@ -17309,7 +17310,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19">
       <c r="A190" s="3">
         <v>189</v>
       </c>
@@ -17368,7 +17369,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19">
       <c r="A191" s="3">
         <v>190</v>
       </c>
@@ -17427,7 +17428,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19">
       <c r="A192" s="3">
         <v>191</v>
       </c>
@@ -17486,7 +17487,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19">
       <c r="A193" s="3">
         <v>192</v>
       </c>
@@ -17545,7 +17546,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19">
       <c r="A194" s="3">
         <v>193</v>
       </c>
@@ -17604,7 +17605,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19">
       <c r="A195" s="3">
         <v>194</v>
       </c>
@@ -17663,7 +17664,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19">
       <c r="A196" s="3">
         <v>195</v>
       </c>
@@ -17722,7 +17723,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19">
       <c r="A197" s="3">
         <v>196</v>
       </c>
@@ -17781,7 +17782,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19">
       <c r="A198" s="3">
         <v>197</v>
       </c>
@@ -17840,7 +17841,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19">
       <c r="A199" s="3">
         <v>198</v>
       </c>
@@ -17899,7 +17900,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19">
       <c r="A200" s="3">
         <v>199</v>
       </c>
@@ -17958,7 +17959,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19">
       <c r="A201" s="3">
         <v>200</v>
       </c>
@@ -18017,7 +18018,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19">
       <c r="A202" s="3">
         <v>201</v>
       </c>
@@ -18076,7 +18077,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19">
       <c r="A203" s="3">
         <v>202</v>
       </c>
@@ -18135,7 +18136,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19">
       <c r="A204" s="3">
         <v>203</v>
       </c>
@@ -18194,7 +18195,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19">
       <c r="A205" s="3">
         <v>204</v>
       </c>
@@ -18253,7 +18254,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19">
       <c r="A206" s="3">
         <v>205</v>
       </c>
@@ -18312,7 +18313,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19">
       <c r="A207" s="3">
         <v>206</v>
       </c>
@@ -18371,7 +18372,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19">
       <c r="A208" s="3">
         <v>207</v>
       </c>
@@ -18430,7 +18431,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19">
       <c r="A209" s="3">
         <v>208</v>
       </c>
@@ -18489,7 +18490,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19">
       <c r="A210" s="3">
         <v>209</v>
       </c>
@@ -18548,7 +18549,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19">
       <c r="A211" s="3">
         <v>210</v>
       </c>
@@ -18607,7 +18608,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19">
       <c r="A212" s="3">
         <v>211</v>
       </c>
@@ -18666,7 +18667,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19">
       <c r="A213" s="3">
         <v>212</v>
       </c>
@@ -18725,7 +18726,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19">
       <c r="A214" s="3">
         <v>213</v>
       </c>
@@ -18784,7 +18785,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19">
       <c r="A215" s="3">
         <v>214</v>
       </c>
@@ -18843,7 +18844,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19">
       <c r="A216" s="3">
         <v>215</v>
       </c>
@@ -18902,7 +18903,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19">
       <c r="A217" s="3">
         <v>216</v>
       </c>
@@ -18961,7 +18962,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19">
       <c r="A218" s="3">
         <v>217</v>
       </c>
@@ -19020,7 +19021,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19">
       <c r="A219" s="3">
         <v>218</v>
       </c>
@@ -19079,7 +19080,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19">
       <c r="A220" s="3">
         <v>219</v>
       </c>
@@ -19138,7 +19139,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19">
       <c r="A221" s="3">
         <v>220</v>
       </c>
@@ -19197,7 +19198,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19">
       <c r="A222" s="3">
         <v>221</v>
       </c>
@@ -19256,7 +19257,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19">
       <c r="A223" s="3">
         <v>222</v>
       </c>
@@ -19315,7 +19316,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19">
       <c r="A224" s="3">
         <v>223</v>
       </c>
@@ -19374,7 +19375,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19">
       <c r="A225" s="3">
         <v>224</v>
       </c>
@@ -19433,7 +19434,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19">
       <c r="A226" s="3">
         <v>225</v>
       </c>
@@ -19492,7 +19493,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19">
       <c r="A227" s="3">
         <v>226</v>
       </c>
@@ -19551,7 +19552,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19">
       <c r="A228" s="3">
         <v>227</v>
       </c>
@@ -19610,7 +19611,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19">
       <c r="A229" s="3">
         <v>228</v>
       </c>
@@ -19669,7 +19670,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19">
       <c r="A230" s="3">
         <v>229</v>
       </c>
@@ -19728,7 +19729,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19">
       <c r="A231" s="3">
         <v>230</v>
       </c>
@@ -19787,7 +19788,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19">
       <c r="A232" s="3">
         <v>231</v>
       </c>
@@ -19846,7 +19847,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19">
       <c r="A233" s="3">
         <v>232</v>
       </c>
@@ -19905,7 +19906,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19">
       <c r="A234" s="3">
         <v>233</v>
       </c>
@@ -19964,7 +19965,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19">
       <c r="A235" s="3">
         <v>234</v>
       </c>
@@ -20023,7 +20024,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19">
       <c r="A236" s="3">
         <v>235</v>
       </c>
@@ -20082,7 +20083,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19">
       <c r="A237" s="3">
         <v>236</v>
       </c>
@@ -20141,7 +20142,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19">
       <c r="A238" s="3">
         <v>237</v>
       </c>
@@ -20200,7 +20201,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19">
       <c r="A239" s="3">
         <v>238</v>
       </c>
@@ -20259,7 +20260,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19">
       <c r="A240" s="3">
         <v>239</v>
       </c>
@@ -20318,7 +20319,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19">
       <c r="A241" s="3">
         <v>240</v>
       </c>
@@ -20377,7 +20378,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19">
       <c r="A242" s="3">
         <v>241</v>
       </c>
@@ -20436,7 +20437,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19">
       <c r="A243" s="3">
         <v>242</v>
       </c>
@@ -20495,7 +20496,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19">
       <c r="A244" s="3">
         <v>243</v>
       </c>
@@ -20554,7 +20555,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19">
       <c r="A245" s="3">
         <v>244</v>
       </c>
@@ -20613,7 +20614,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19">
       <c r="A246" s="3">
         <v>245</v>
       </c>
@@ -20672,7 +20673,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19">
       <c r="A247" s="3">
         <v>246</v>
       </c>
@@ -20731,7 +20732,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19">
       <c r="A248" s="3">
         <v>247</v>
       </c>
@@ -20790,7 +20791,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19">
       <c r="A249" s="3">
         <v>248</v>
       </c>
@@ -20849,7 +20850,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19">
       <c r="A250" s="3">
         <v>249</v>
       </c>
@@ -20908,7 +20909,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19">
       <c r="A251" s="3">
         <v>250</v>
       </c>
@@ -20967,7 +20968,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19">
       <c r="A252" s="3">
         <v>251</v>
       </c>
@@ -21026,7 +21027,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19">
       <c r="A253" s="3">
         <v>252</v>
       </c>
@@ -21085,7 +21086,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19">
       <c r="A254" s="3">
         <v>253</v>
       </c>
@@ -21144,7 +21145,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19">
       <c r="A255" s="3">
         <v>254</v>
       </c>
@@ -21203,7 +21204,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19">
       <c r="A256" s="3">
         <v>255</v>
       </c>
@@ -21262,7 +21263,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19">
       <c r="A257" s="3">
         <v>256</v>
       </c>
@@ -21321,7 +21322,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19">
       <c r="A258" s="3">
         <v>257</v>
       </c>
@@ -21380,7 +21381,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19">
       <c r="A259" s="3">
         <v>258</v>
       </c>
@@ -21439,7 +21440,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19">
       <c r="A260" s="3">
         <v>259</v>
       </c>
@@ -21498,7 +21499,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19">
       <c r="A261" s="3">
         <v>260</v>
       </c>
@@ -21557,7 +21558,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19">
       <c r="A262" s="3">
         <v>261</v>
       </c>
@@ -21616,7 +21617,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19">
       <c r="A263" s="3">
         <v>262</v>
       </c>
@@ -21675,7 +21676,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19">
       <c r="A264" s="3">
         <v>263</v>
       </c>
@@ -21734,7 +21735,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19">
       <c r="A265" s="3">
         <v>264</v>
       </c>
@@ -21793,7 +21794,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19">
       <c r="A266" s="3">
         <v>265</v>
       </c>
@@ -21852,7 +21853,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19">
       <c r="A267" s="3">
         <v>266</v>
       </c>
@@ -21911,7 +21912,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19">
       <c r="A268" s="3">
         <v>267</v>
       </c>
@@ -21970,7 +21971,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19">
       <c r="A269" s="3">
         <v>268</v>
       </c>
@@ -22029,7 +22030,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19">
       <c r="A270" s="3">
         <v>269</v>
       </c>
@@ -22088,7 +22089,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19">
       <c r="A271" s="3">
         <v>270</v>
       </c>
@@ -22147,7 +22148,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19">
       <c r="A272" s="3">
         <v>271</v>
       </c>
@@ -22206,7 +22207,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19">
       <c r="A273" s="3">
         <v>272</v>
       </c>
@@ -22265,7 +22266,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19">
       <c r="A274" s="3">
         <v>273</v>
       </c>
@@ -22324,7 +22325,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19">
       <c r="A275" s="3">
         <v>274</v>
       </c>
@@ -22383,7 +22384,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19">
       <c r="A276" s="3">
         <v>275</v>
       </c>
@@ -22442,7 +22443,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19">
       <c r="A277" s="3">
         <v>276</v>
       </c>
@@ -22501,7 +22502,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19">
       <c r="A278" s="3">
         <v>277</v>
       </c>
@@ -22560,7 +22561,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19">
       <c r="A279" s="3">
         <v>278</v>
       </c>
@@ -22619,7 +22620,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19">
       <c r="A280" s="3">
         <v>279</v>
       </c>
@@ -22678,7 +22679,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19">
       <c r="A281" s="3">
         <v>280</v>
       </c>
@@ -22737,7 +22738,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19">
       <c r="A282" s="3">
         <v>281</v>
       </c>
@@ -22796,7 +22797,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19">
       <c r="A283" s="3">
         <v>282</v>
       </c>
@@ -22855,7 +22856,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19">
       <c r="A284" s="3">
         <v>283</v>
       </c>
@@ -22914,7 +22915,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19">
       <c r="A285" s="3">
         <v>284</v>
       </c>
@@ -22973,7 +22974,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19">
       <c r="A286" s="3">
         <v>285</v>
       </c>
@@ -23032,7 +23033,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19">
       <c r="A287" s="3">
         <v>286</v>
       </c>
@@ -23091,7 +23092,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19">
       <c r="A288" s="3">
         <v>287</v>
       </c>
@@ -23150,7 +23151,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19">
       <c r="A289" s="3">
         <v>288</v>
       </c>
@@ -23209,7 +23210,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19">
       <c r="A290" s="3">
         <v>289</v>
       </c>
@@ -23268,7 +23269,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19">
       <c r="A291" s="3">
         <v>290</v>
       </c>
@@ -23327,7 +23328,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19">
       <c r="A292" s="3">
         <v>291</v>
       </c>
@@ -23386,7 +23387,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19">
       <c r="A293" s="3">
         <v>292</v>
       </c>
@@ -23445,7 +23446,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19">
       <c r="A294" s="3">
         <v>293</v>
       </c>
@@ -23504,7 +23505,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19">
       <c r="A295" s="3">
         <v>294</v>
       </c>
@@ -23563,7 +23564,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19">
       <c r="A296" s="3">
         <v>295</v>
       </c>
@@ -23622,7 +23623,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19">
       <c r="A297" s="3">
         <v>296</v>
       </c>
@@ -23681,7 +23682,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19">
       <c r="A298" s="3">
         <v>297</v>
       </c>
@@ -23740,7 +23741,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19">
       <c r="A299" s="3">
         <v>298</v>
       </c>
@@ -23799,7 +23800,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19">
       <c r="A300" s="3">
         <v>299</v>
       </c>
@@ -23858,7 +23859,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19">
       <c r="A301" s="3">
         <v>300</v>
       </c>
@@ -23917,7 +23918,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19">
       <c r="A302" s="3">
         <v>301</v>
       </c>
@@ -23976,7 +23977,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19">
       <c r="A303" s="3">
         <v>302</v>
       </c>
@@ -24035,7 +24036,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19">
       <c r="A304" s="3">
         <v>303</v>
       </c>
@@ -24094,7 +24095,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19">
       <c r="A305" s="3">
         <v>304</v>
       </c>
@@ -24153,7 +24154,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19">
       <c r="A306" s="3">
         <v>305</v>
       </c>
@@ -24212,7 +24213,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19">
       <c r="A307" s="3">
         <v>306</v>
       </c>
@@ -24271,7 +24272,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19">
       <c r="A308" s="3">
         <v>307</v>
       </c>
@@ -24330,7 +24331,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19">
       <c r="A309" s="3">
         <v>308</v>
       </c>
@@ -24389,7 +24390,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19">
       <c r="A310" s="3">
         <v>309</v>
       </c>
@@ -24448,7 +24449,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19">
       <c r="A311" s="3">
         <v>310</v>
       </c>
@@ -24507,7 +24508,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19">
       <c r="A312" s="3">
         <v>311</v>
       </c>
@@ -24566,7 +24567,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19">
       <c r="A313" s="3">
         <v>312</v>
       </c>
@@ -24625,7 +24626,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19">
       <c r="A314" s="3">
         <v>313</v>
       </c>
@@ -24684,7 +24685,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19">
       <c r="A315" s="3">
         <v>314</v>
       </c>
@@ -24743,7 +24744,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19">
       <c r="A316" s="3">
         <v>315</v>
       </c>
@@ -24802,7 +24803,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19">
       <c r="A317" s="3">
         <v>316</v>
       </c>
@@ -24861,7 +24862,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19">
       <c r="A318" s="3">
         <v>317</v>
       </c>
@@ -24920,7 +24921,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19">
       <c r="A319" s="3">
         <v>318</v>
       </c>
@@ -24979,7 +24980,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19">
       <c r="A320" s="3">
         <v>319</v>
       </c>
@@ -25038,7 +25039,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19">
       <c r="A321" s="3">
         <v>320</v>
       </c>
@@ -25097,7 +25098,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19">
       <c r="A322" s="3">
         <v>321</v>
       </c>
@@ -25156,7 +25157,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19">
       <c r="A323" s="3">
         <v>322</v>
       </c>
@@ -25215,7 +25216,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19">
       <c r="A324" s="3">
         <v>323</v>
       </c>
@@ -25274,7 +25275,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19">
       <c r="A325" s="3">
         <v>324</v>
       </c>
@@ -25333,7 +25334,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19">
       <c r="A326" s="3">
         <v>325</v>
       </c>
@@ -25392,7 +25393,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19">
       <c r="A327" s="3">
         <v>326</v>
       </c>
@@ -25451,7 +25452,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19">
       <c r="A328" s="3">
         <v>327</v>
       </c>
@@ -25510,7 +25511,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19">
       <c r="A329" s="3">
         <v>328</v>
       </c>
@@ -25569,7 +25570,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19">
       <c r="A330" s="3">
         <v>329</v>
       </c>
@@ -25628,7 +25629,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19">
       <c r="A331" s="3">
         <v>330</v>
       </c>
@@ -25687,7 +25688,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19">
       <c r="A332" s="3">
         <v>331</v>
       </c>
@@ -25746,7 +25747,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19">
       <c r="A333" s="3">
         <v>332</v>
       </c>
@@ -25805,7 +25806,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19">
       <c r="A334" s="3">
         <v>333</v>
       </c>
@@ -25864,7 +25865,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19">
       <c r="A335" s="3">
         <v>334</v>
       </c>
@@ -25923,7 +25924,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19">
       <c r="A336" s="3">
         <v>335</v>
       </c>
@@ -25982,7 +25983,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19">
       <c r="A337" s="3">
         <v>336</v>
       </c>
@@ -26041,7 +26042,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19">
       <c r="A338" s="3">
         <v>337</v>
       </c>
@@ -26100,7 +26101,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19">
       <c r="A339" s="3">
         <v>338</v>
       </c>
@@ -26159,7 +26160,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19">
       <c r="A340" s="3">
         <v>339</v>
       </c>
@@ -26218,7 +26219,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19">
       <c r="A341" s="3">
         <v>340</v>
       </c>
@@ -26277,7 +26278,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19">
       <c r="A342" s="3">
         <v>341</v>
       </c>
@@ -26336,7 +26337,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19">
       <c r="A343" s="3">
         <v>342</v>
       </c>
@@ -26395,7 +26396,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19">
       <c r="A344" s="3">
         <v>343</v>
       </c>
@@ -26454,7 +26455,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19">
       <c r="A345" s="3">
         <v>344</v>
       </c>
@@ -26513,7 +26514,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19">
       <c r="A346" s="3">
         <v>345</v>
       </c>
@@ -26572,7 +26573,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19">
       <c r="A347" s="3">
         <v>346</v>
       </c>
@@ -26631,7 +26632,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19">
       <c r="A348" s="3">
         <v>347</v>
       </c>
@@ -26690,7 +26691,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19">
       <c r="A349" s="3">
         <v>348</v>
       </c>
@@ -26749,7 +26750,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19">
       <c r="A350" s="3">
         <v>349</v>
       </c>
@@ -26808,7 +26809,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19">
       <c r="A351" s="3">
         <v>350</v>
       </c>
@@ -26867,7 +26868,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19">
       <c r="A352" s="3">
         <v>351</v>
       </c>
@@ -26926,7 +26927,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19">
       <c r="A353" s="3">
         <v>352</v>
       </c>
@@ -26985,7 +26986,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19">
       <c r="A354" s="3">
         <v>353</v>
       </c>
@@ -27044,7 +27045,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19">
       <c r="A355" s="3">
         <v>354</v>
       </c>
@@ -27103,7 +27104,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:19">
       <c r="A356" s="3">
         <v>355</v>
       </c>
@@ -27162,7 +27163,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:19">
       <c r="A357" s="3">
         <v>356</v>
       </c>
@@ -27221,7 +27222,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:19">
       <c r="A358" s="3">
         <v>357</v>
       </c>
@@ -27280,7 +27281,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:19">
       <c r="A359" s="3">
         <v>358</v>
       </c>
@@ -27339,7 +27340,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:19">
       <c r="A360" s="3">
         <v>359</v>
       </c>
@@ -27398,7 +27399,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:19">
       <c r="A361" s="3">
         <v>360</v>
       </c>
@@ -27457,7 +27458,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:19">
       <c r="A362" s="3">
         <v>361</v>
       </c>
@@ -27516,7 +27517,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:19">
       <c r="A363" s="3">
         <v>362</v>
       </c>
@@ -27575,7 +27576,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:19">
       <c r="A364" s="3">
         <v>363</v>
       </c>
@@ -27634,7 +27635,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19">
       <c r="A365" s="3">
         <v>364</v>
       </c>
@@ -27693,7 +27694,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:19">
       <c r="A366" s="3">
         <v>365</v>
       </c>
@@ -27752,7 +27753,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:19">
       <c r="A367" s="3">
         <v>366</v>
       </c>
@@ -27811,7 +27812,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:19">
       <c r="A368" s="3">
         <v>367</v>
       </c>
@@ -27870,7 +27871,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:19">
       <c r="A369" s="3">
         <v>368</v>
       </c>
@@ -27929,7 +27930,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:19">
       <c r="A370" s="3">
         <v>369</v>
       </c>
@@ -27988,7 +27989,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:19">
       <c r="A371" s="3">
         <v>370</v>
       </c>
@@ -28047,7 +28048,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:19">
       <c r="A372" s="3">
         <v>371</v>
       </c>
@@ -28106,7 +28107,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="373" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:19">
       <c r="A373" s="3">
         <v>372</v>
       </c>
@@ -28165,7 +28166,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:19">
       <c r="A374" s="3">
         <v>373</v>
       </c>
@@ -28224,7 +28225,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:19">
       <c r="A375" s="3">
         <v>374</v>
       </c>
@@ -28283,7 +28284,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:19">
       <c r="A376" s="3">
         <v>375</v>
       </c>
@@ -28342,7 +28343,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:19">
       <c r="A377" s="3">
         <v>376</v>
       </c>
@@ -28401,7 +28402,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:19">
       <c r="A378" s="3">
         <v>377</v>
       </c>
@@ -28460,7 +28461,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="379" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:19">
       <c r="A379" s="3">
         <v>378</v>
       </c>
@@ -28519,7 +28520,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:19">
       <c r="A380" s="3">
         <v>379</v>
       </c>
@@ -28578,7 +28579,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="381" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:19">
       <c r="A381" s="3">
         <v>380</v>
       </c>
@@ -28637,7 +28638,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:19">
       <c r="A382" s="3">
         <v>381</v>
       </c>
@@ -28696,7 +28697,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="383" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:19">
       <c r="A383" s="3">
         <v>382</v>
       </c>
@@ -28755,7 +28756,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:19">
       <c r="A384" s="3">
         <v>383</v>
       </c>
@@ -28814,7 +28815,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19">
       <c r="A385" s="3">
         <v>384</v>
       </c>
@@ -28873,7 +28874,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:19">
       <c r="A386" s="3">
         <v>385</v>
       </c>
@@ -28932,7 +28933,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19">
       <c r="A387" s="3">
         <v>386</v>
       </c>
@@ -28991,7 +28992,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:19">
       <c r="A388" s="3">
         <v>387</v>
       </c>
@@ -29050,7 +29051,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:19">
       <c r="A389" s="3">
         <v>388</v>
       </c>
@@ -29109,7 +29110,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19">
       <c r="A390" s="3">
         <v>389</v>
       </c>
@@ -29168,7 +29169,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:19">
       <c r="A391" s="3">
         <v>390</v>
       </c>
@@ -29227,7 +29228,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:19">
       <c r="A392" s="3">
         <v>391</v>
       </c>
@@ -29286,7 +29287,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:19">
       <c r="A393" s="3">
         <v>392</v>
       </c>
@@ -29345,7 +29346,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:19">
       <c r="A394" s="3">
         <v>393</v>
       </c>
@@ -29404,7 +29405,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:19">
       <c r="A395" s="3">
         <v>394</v>
       </c>
@@ -29463,7 +29464,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:19">
       <c r="A396" s="3">
         <v>395</v>
       </c>
@@ -29522,7 +29523,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:19">
       <c r="A397" s="3">
         <v>396</v>
       </c>
@@ -29581,7 +29582,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:19">
       <c r="A398" s="3">
         <v>397</v>
       </c>
@@ -29640,7 +29641,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:19">
       <c r="A399" s="3">
         <v>398</v>
       </c>
@@ -29699,7 +29700,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:19">
       <c r="A400" s="3">
         <v>399</v>
       </c>
@@ -29758,7 +29759,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="401" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:19">
       <c r="A401" s="3">
         <v>400</v>
       </c>
@@ -29817,7 +29818,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="402" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:19">
       <c r="A402" s="3">
         <v>401</v>
       </c>
@@ -29876,7 +29877,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="403" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:19">
       <c r="A403" s="3">
         <v>402</v>
       </c>
@@ -29935,7 +29936,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="404" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:19">
       <c r="A404" s="3">
         <v>403</v>
       </c>
@@ -29994,7 +29995,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="405" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:19">
       <c r="A405" s="3">
         <v>404</v>
       </c>
@@ -30053,7 +30054,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:19">
       <c r="A406" s="3">
         <v>405</v>
       </c>
@@ -30112,7 +30113,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:19">
       <c r="A407" s="3">
         <v>406</v>
       </c>
@@ -30171,7 +30172,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="408" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:19">
       <c r="A408" s="3">
         <v>407</v>
       </c>
@@ -30230,7 +30231,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="409" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:19">
       <c r="A409" s="3">
         <v>408</v>
       </c>
@@ -30289,7 +30290,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:19">
       <c r="A410" s="3">
         <v>409</v>
       </c>
@@ -30348,7 +30349,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:19">
       <c r="A411" s="3">
         <v>410</v>
       </c>
@@ -30407,7 +30408,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19">
       <c r="A412" s="3">
         <v>411</v>
       </c>
@@ -30466,7 +30467,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:19">
       <c r="A413" s="3">
         <v>412</v>
       </c>
@@ -30525,7 +30526,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:19">
       <c r="A414" s="3">
         <v>413</v>
       </c>
@@ -30584,7 +30585,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:19">
       <c r="A415" s="3">
         <v>414</v>
       </c>
@@ -30643,7 +30644,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19">
       <c r="A416" s="3">
         <v>415</v>
       </c>
@@ -30702,7 +30703,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:19">
       <c r="A417" s="3">
         <v>416</v>
       </c>
@@ -30761,7 +30762,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:19">
       <c r="A418" s="3">
         <v>417</v>
       </c>
@@ -30820,7 +30821,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:19">
       <c r="A419" s="3">
         <v>418</v>
       </c>
@@ -30879,7 +30880,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:19">
       <c r="A420" s="3">
         <v>419</v>
       </c>
@@ -30938,7 +30939,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:19">
       <c r="A421" s="3">
         <v>420</v>
       </c>
@@ -30997,7 +30998,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19">
       <c r="A422" s="3">
         <v>421</v>
       </c>
@@ -31056,7 +31057,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:19">
       <c r="A423" s="3">
         <v>422</v>
       </c>
@@ -31115,7 +31116,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:19">
       <c r="A424" s="3">
         <v>423</v>
       </c>
@@ -31174,7 +31175,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:19">
       <c r="A425" s="3">
         <v>424</v>
       </c>
@@ -31233,7 +31234,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:19">
       <c r="A426" s="3">
         <v>425</v>
       </c>
@@ -31292,7 +31293,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:19">
       <c r="A427" s="3">
         <v>426</v>
       </c>
@@ -31351,7 +31352,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:19">
       <c r="A428" s="3">
         <v>427</v>
       </c>
@@ -31410,7 +31411,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:19">
       <c r="A429" s="3">
         <v>428</v>
       </c>
@@ -31469,7 +31470,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:19">
       <c r="A430" s="3">
         <v>429</v>
       </c>
@@ -31528,7 +31529,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:19">
       <c r="A431" s="3">
         <v>430</v>
       </c>
@@ -31587,7 +31588,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:19">
       <c r="A432" s="3">
         <v>431</v>
       </c>
@@ -31646,7 +31647,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:19">
       <c r="A433" s="3">
         <v>432</v>
       </c>
@@ -31705,7 +31706,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:19">
       <c r="A434" s="3">
         <v>433</v>
       </c>
@@ -31764,7 +31765,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:19">
       <c r="A435" s="3">
         <v>434</v>
       </c>
@@ -31823,7 +31824,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:19">
       <c r="A436" s="3">
         <v>435</v>
       </c>
@@ -31882,7 +31883,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:19">
       <c r="A437" s="3">
         <v>436</v>
       </c>
@@ -31941,7 +31942,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:19">
       <c r="A438" s="3">
         <v>437</v>
       </c>
@@ -32000,7 +32001,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:19">
       <c r="A439" s="3">
         <v>438</v>
       </c>
@@ -32059,7 +32060,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:19">
       <c r="A440" s="3">
         <v>439</v>
       </c>
@@ -32118,7 +32119,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:19">
       <c r="A441" s="3">
         <v>440</v>
       </c>
@@ -32177,7 +32178,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:19">
       <c r="A442" s="3">
         <v>441</v>
       </c>
@@ -32236,7 +32237,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="443" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:19">
       <c r="A443" s="3">
         <v>442</v>
       </c>
@@ -32295,7 +32296,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="444" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:19">
       <c r="A444" s="3">
         <v>443</v>
       </c>
@@ -32354,7 +32355,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:19">
       <c r="A445" s="3">
         <v>444</v>
       </c>
@@ -32413,7 +32414,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:19">
       <c r="A446" s="3">
         <v>445</v>
       </c>
@@ -32472,7 +32473,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:19">
       <c r="A447" s="3">
         <v>446</v>
       </c>
@@ -32531,7 +32532,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="448" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:19">
       <c r="A448" s="3">
         <v>447</v>
       </c>
@@ -32590,7 +32591,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:19">
       <c r="A449" s="3">
         <v>448</v>
       </c>
@@ -32649,7 +32650,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="450" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:19">
       <c r="A450" s="3">
         <v>449</v>
       </c>
@@ -32708,7 +32709,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="451" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:19">
       <c r="A451" s="3">
         <v>450</v>
       </c>
@@ -32767,7 +32768,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:19">
       <c r="A452" s="3">
         <v>451</v>
       </c>
@@ -32826,7 +32827,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:19">
       <c r="A453" s="3">
         <v>452</v>
       </c>
@@ -32885,7 +32886,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="454" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:19">
       <c r="A454" s="3">
         <v>453</v>
       </c>
@@ -32944,7 +32945,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="455" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:19">
       <c r="A455" s="3">
         <v>454</v>
       </c>
@@ -33003,7 +33004,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:19">
       <c r="A456" s="3">
         <v>455</v>
       </c>
@@ -33062,7 +33063,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="457" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:19">
       <c r="A457" s="3">
         <v>456</v>
       </c>
@@ -33121,7 +33122,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="458" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:19">
       <c r="A458" s="3">
         <v>457</v>
       </c>
@@ -33180,7 +33181,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="459" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:19">
       <c r="A459" s="3">
         <v>458</v>
       </c>
@@ -33239,7 +33240,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="460" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:19">
       <c r="A460" s="3">
         <v>459</v>
       </c>
@@ -33298,7 +33299,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:19">
       <c r="A461" s="3">
         <v>460</v>
       </c>
@@ -33357,7 +33358,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="462" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:19">
       <c r="A462" s="3">
         <v>461</v>
       </c>
@@ -33416,7 +33417,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="463" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:19">
       <c r="A463" s="3">
         <v>462</v>
       </c>
@@ -33475,7 +33476,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:19">
       <c r="A464" s="3">
         <v>463</v>
       </c>
@@ -33534,7 +33535,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:19">
       <c r="A465" s="3">
         <v>464</v>
       </c>
@@ -33593,7 +33594,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:19">
       <c r="A466" s="3">
         <v>465</v>
       </c>
@@ -33652,7 +33653,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:19">
       <c r="A467" s="3">
         <v>466</v>
       </c>
@@ -33711,7 +33712,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="468" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:19">
       <c r="A468" s="3">
         <v>467</v>
       </c>
@@ -33770,7 +33771,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:19">
       <c r="A469" s="3">
         <v>468</v>
       </c>
@@ -33829,7 +33830,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:19">
       <c r="A470" s="3">
         <v>469</v>
       </c>
@@ -33888,7 +33889,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:19">
       <c r="A471" s="3">
         <v>470</v>
       </c>
@@ -33947,7 +33948,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:19">
       <c r="A472" s="3">
         <v>471</v>
       </c>
@@ -34006,7 +34007,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:19">
       <c r="A473" s="3">
         <v>472</v>
       </c>
@@ -34065,7 +34066,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:19">
       <c r="A474" s="3">
         <v>473</v>
       </c>
@@ -34124,7 +34125,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="475" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:19">
       <c r="A475" s="3">
         <v>474</v>
       </c>
@@ -34183,7 +34184,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:19">
       <c r="A476" s="3">
         <v>475</v>
       </c>
@@ -34242,7 +34243,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:19">
       <c r="A477" s="3">
         <v>476</v>
       </c>
@@ -34301,7 +34302,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:19">
       <c r="A478" s="3">
         <v>477</v>
       </c>
@@ -34360,7 +34361,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:19">
       <c r="A479" s="3">
         <v>478</v>
       </c>
@@ -34419,7 +34420,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:19">
       <c r="A480" s="3">
         <v>479</v>
       </c>
@@ -34478,7 +34479,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="481" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:19">
       <c r="A481" s="3">
         <v>480</v>
       </c>
@@ -34537,7 +34538,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="482" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:19">
       <c r="A482" s="3">
         <v>481</v>
       </c>
@@ -34596,7 +34597,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="483" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:19">
       <c r="A483" s="3">
         <v>482</v>
       </c>
@@ -34655,7 +34656,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="484" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:19">
       <c r="A484" s="3">
         <v>483</v>
       </c>
@@ -34714,7 +34715,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="485" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:19">
       <c r="A485" s="3">
         <v>484</v>
       </c>
@@ -34773,7 +34774,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="486" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:19">
       <c r="A486" s="3">
         <v>485</v>
       </c>
@@ -34832,7 +34833,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="487" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:19">
       <c r="A487" s="3">
         <v>486</v>
       </c>
@@ -34891,7 +34892,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="488" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:19">
       <c r="A488" s="3">
         <v>487</v>
       </c>
@@ -34950,7 +34951,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:19">
       <c r="A489" s="3">
         <v>488</v>
       </c>
@@ -35009,7 +35010,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:19">
       <c r="A490" s="3">
         <v>489</v>
       </c>
@@ -35068,7 +35069,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="491" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:19">
       <c r="A491" s="3">
         <v>490</v>
       </c>
@@ -35127,7 +35128,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="492" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:19">
       <c r="A492" s="3">
         <v>491</v>
       </c>
@@ -35186,7 +35187,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="493" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:19">
       <c r="A493" s="3">
         <v>492</v>
       </c>
@@ -35245,7 +35246,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="494" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:19">
       <c r="A494" s="3">
         <v>493</v>
       </c>
@@ -35304,7 +35305,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="495" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:19">
       <c r="A495" s="3">
         <v>494</v>
       </c>
@@ -35363,7 +35364,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="496" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:19">
       <c r="A496" s="3">
         <v>495</v>
       </c>
@@ -35422,7 +35423,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:19">
       <c r="A497" s="3">
         <v>496</v>
       </c>
@@ -35481,7 +35482,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:19">
       <c r="A498" s="3">
         <v>497</v>
       </c>
@@ -35540,7 +35541,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:19">
       <c r="A499" s="3">
         <v>498</v>
       </c>
@@ -35599,7 +35600,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:19">
       <c r="A500" s="3">
         <v>499</v>
       </c>
@@ -35658,7 +35659,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="501" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:19">
       <c r="A501" s="3">
         <v>500</v>
       </c>
@@ -35717,655 +35718,655 @@
         <v>55</v>
       </c>
     </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:19">
       <c r="I502" s="3"/>
       <c r="J502" s="3"/>
       <c r="K502" s="3"/>
       <c r="L502" s="3"/>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:19">
       <c r="I503" s="3"/>
       <c r="J503" s="3"/>
       <c r="K503" s="3"/>
       <c r="L503" s="3"/>
     </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:19">
       <c r="I504" s="3"/>
       <c r="J504" s="3"/>
       <c r="K504" s="3"/>
       <c r="L504" s="3"/>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:19">
       <c r="I505" s="3"/>
       <c r="J505" s="3"/>
       <c r="K505" s="3"/>
       <c r="L505" s="3"/>
     </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:19">
       <c r="I506" s="3"/>
       <c r="J506" s="3"/>
       <c r="K506" s="3"/>
       <c r="L506" s="3"/>
     </row>
-    <row r="507" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:19">
       <c r="I507" s="3"/>
       <c r="J507" s="3"/>
       <c r="K507" s="3"/>
       <c r="L507" s="3"/>
     </row>
-    <row r="508" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:19">
       <c r="I508" s="3"/>
       <c r="J508" s="3"/>
       <c r="K508" s="3"/>
       <c r="L508" s="3"/>
     </row>
-    <row r="509" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:19">
       <c r="I509" s="3"/>
       <c r="J509" s="3"/>
       <c r="K509" s="3"/>
       <c r="L509" s="3"/>
     </row>
-    <row r="510" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:19">
       <c r="I510" s="3"/>
       <c r="J510" s="3"/>
       <c r="K510" s="3"/>
       <c r="L510" s="3"/>
     </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:19">
       <c r="I511" s="3"/>
       <c r="J511" s="3"/>
       <c r="K511" s="3"/>
       <c r="L511" s="3"/>
     </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:19">
       <c r="I512" s="3"/>
       <c r="J512" s="3"/>
       <c r="K512" s="3"/>
       <c r="L512" s="3"/>
     </row>
-    <row r="513" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="513" spans="9:12">
       <c r="I513" s="3"/>
       <c r="J513" s="3"/>
       <c r="K513" s="3"/>
       <c r="L513" s="3"/>
     </row>
-    <row r="514" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="514" spans="9:12">
       <c r="I514" s="3"/>
       <c r="J514" s="3"/>
       <c r="K514" s="3"/>
       <c r="L514" s="3"/>
     </row>
-    <row r="515" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="515" spans="9:12">
       <c r="I515" s="3"/>
       <c r="J515" s="3"/>
       <c r="K515" s="3"/>
       <c r="L515" s="3"/>
     </row>
-    <row r="516" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="516" spans="9:12">
       <c r="I516" s="3"/>
       <c r="J516" s="3"/>
       <c r="K516" s="3"/>
       <c r="L516" s="3"/>
     </row>
-    <row r="517" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="517" spans="9:12">
       <c r="I517" s="3"/>
       <c r="J517" s="3"/>
       <c r="K517" s="3"/>
       <c r="L517" s="3"/>
     </row>
-    <row r="518" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="518" spans="9:12">
       <c r="I518" s="3"/>
       <c r="J518" s="3"/>
       <c r="K518" s="3"/>
       <c r="L518" s="3"/>
     </row>
-    <row r="519" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="519" spans="9:12">
       <c r="I519" s="3"/>
       <c r="J519" s="3"/>
       <c r="K519" s="3"/>
       <c r="L519" s="3"/>
     </row>
-    <row r="520" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="520" spans="9:12">
       <c r="I520" s="3"/>
       <c r="J520" s="3"/>
       <c r="K520" s="3"/>
       <c r="L520" s="3"/>
     </row>
-    <row r="521" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="521" spans="9:12">
       <c r="I521" s="3"/>
       <c r="J521" s="3"/>
       <c r="K521" s="3"/>
       <c r="L521" s="3"/>
     </row>
-    <row r="522" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="522" spans="9:12">
       <c r="I522" s="3"/>
       <c r="J522" s="3"/>
       <c r="K522" s="3"/>
       <c r="L522" s="3"/>
     </row>
-    <row r="523" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="523" spans="9:12">
       <c r="I523" s="3"/>
       <c r="J523" s="3"/>
       <c r="K523" s="3"/>
       <c r="L523" s="3"/>
     </row>
-    <row r="524" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="524" spans="9:12">
       <c r="I524" s="3"/>
       <c r="J524" s="3"/>
       <c r="K524" s="3"/>
       <c r="L524" s="3"/>
     </row>
-    <row r="525" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="525" spans="9:12">
       <c r="I525" s="3"/>
       <c r="J525" s="3"/>
       <c r="K525" s="3"/>
       <c r="L525" s="3"/>
     </row>
-    <row r="526" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="526" spans="9:12">
       <c r="I526" s="3"/>
       <c r="J526" s="3"/>
       <c r="K526" s="3"/>
       <c r="L526" s="3"/>
     </row>
-    <row r="527" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="527" spans="9:12">
       <c r="I527" s="3"/>
       <c r="J527" s="3"/>
       <c r="K527" s="3"/>
       <c r="L527" s="3"/>
     </row>
-    <row r="528" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="528" spans="9:12">
       <c r="I528" s="3"/>
       <c r="J528" s="3"/>
       <c r="K528" s="3"/>
       <c r="L528" s="3"/>
     </row>
-    <row r="529" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="529" spans="9:12">
       <c r="I529" s="3"/>
       <c r="J529" s="3"/>
       <c r="K529" s="3"/>
       <c r="L529" s="3"/>
     </row>
-    <row r="530" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="530" spans="9:12">
       <c r="I530" s="3"/>
       <c r="J530" s="3"/>
       <c r="K530" s="3"/>
       <c r="L530" s="3"/>
     </row>
-    <row r="531" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="531" spans="9:12">
       <c r="I531" s="3"/>
       <c r="J531" s="3"/>
       <c r="K531" s="3"/>
       <c r="L531" s="3"/>
     </row>
-    <row r="532" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="532" spans="9:12">
       <c r="I532" s="3"/>
       <c r="J532" s="3"/>
       <c r="K532" s="3"/>
       <c r="L532" s="3"/>
     </row>
-    <row r="533" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="533" spans="9:12">
       <c r="I533" s="3"/>
       <c r="J533" s="3"/>
       <c r="K533" s="3"/>
       <c r="L533" s="3"/>
     </row>
-    <row r="534" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="534" spans="9:12">
       <c r="I534" s="3"/>
       <c r="J534" s="3"/>
       <c r="K534" s="3"/>
       <c r="L534" s="3"/>
     </row>
-    <row r="535" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="535" spans="9:12">
       <c r="I535" s="3"/>
       <c r="J535" s="3"/>
       <c r="K535" s="3"/>
       <c r="L535" s="3"/>
     </row>
-    <row r="536" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="536" spans="9:12">
       <c r="I536" s="3"/>
       <c r="J536" s="3"/>
       <c r="K536" s="3"/>
       <c r="L536" s="3"/>
     </row>
-    <row r="537" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="537" spans="9:12">
       <c r="I537" s="3"/>
       <c r="J537" s="3"/>
       <c r="K537" s="3"/>
       <c r="L537" s="3"/>
     </row>
-    <row r="538" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="538" spans="9:12">
       <c r="I538" s="3"/>
       <c r="J538" s="3"/>
       <c r="K538" s="3"/>
       <c r="L538" s="3"/>
     </row>
-    <row r="539" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="539" spans="9:12">
       <c r="I539" s="3"/>
       <c r="J539" s="3"/>
       <c r="K539" s="3"/>
       <c r="L539" s="3"/>
     </row>
-    <row r="540" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="540" spans="9:12">
       <c r="I540" s="3"/>
       <c r="J540" s="3"/>
       <c r="K540" s="3"/>
       <c r="L540" s="3"/>
     </row>
-    <row r="541" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="541" spans="9:12">
       <c r="I541" s="3"/>
       <c r="J541" s="3"/>
       <c r="K541" s="3"/>
       <c r="L541" s="3"/>
     </row>
-    <row r="542" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="542" spans="9:12">
       <c r="I542" s="3"/>
       <c r="J542" s="3"/>
       <c r="K542" s="3"/>
       <c r="L542" s="3"/>
     </row>
-    <row r="543" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="543" spans="9:12">
       <c r="I543" s="3"/>
       <c r="J543" s="3"/>
       <c r="K543" s="3"/>
       <c r="L543" s="3"/>
     </row>
-    <row r="544" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="544" spans="9:12">
       <c r="I544" s="3"/>
       <c r="J544" s="3"/>
       <c r="K544" s="3"/>
       <c r="L544" s="3"/>
     </row>
-    <row r="545" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="545" spans="9:12">
       <c r="I545" s="3"/>
       <c r="J545" s="3"/>
       <c r="K545" s="3"/>
       <c r="L545" s="3"/>
     </row>
-    <row r="546" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="546" spans="9:12">
       <c r="I546" s="3"/>
       <c r="J546" s="3"/>
       <c r="K546" s="3"/>
       <c r="L546" s="3"/>
     </row>
-    <row r="547" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="547" spans="9:12">
       <c r="I547" s="3"/>
       <c r="J547" s="3"/>
       <c r="K547" s="3"/>
       <c r="L547" s="3"/>
     </row>
-    <row r="548" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="548" spans="9:12">
       <c r="I548" s="3"/>
       <c r="J548" s="3"/>
       <c r="K548" s="3"/>
       <c r="L548" s="3"/>
     </row>
-    <row r="549" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="549" spans="9:12">
       <c r="I549" s="3"/>
       <c r="J549" s="3"/>
       <c r="K549" s="3"/>
       <c r="L549" s="3"/>
     </row>
-    <row r="550" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="550" spans="9:12">
       <c r="I550" s="3"/>
       <c r="J550" s="3"/>
       <c r="K550" s="3"/>
       <c r="L550" s="3"/>
     </row>
-    <row r="551" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="551" spans="9:12">
       <c r="I551" s="3"/>
       <c r="J551" s="3"/>
       <c r="K551" s="3"/>
       <c r="L551" s="3"/>
     </row>
-    <row r="552" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="552" spans="9:12">
       <c r="I552" s="3"/>
       <c r="J552" s="3"/>
       <c r="K552" s="3"/>
       <c r="L552" s="3"/>
     </row>
-    <row r="553" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="553" spans="9:12">
       <c r="I553" s="3"/>
       <c r="J553" s="3"/>
       <c r="K553" s="3"/>
       <c r="L553" s="3"/>
     </row>
-    <row r="554" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="554" spans="9:12">
       <c r="I554" s="3"/>
       <c r="J554" s="3"/>
       <c r="K554" s="3"/>
       <c r="L554" s="3"/>
     </row>
-    <row r="555" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="555" spans="9:12">
       <c r="I555" s="3"/>
       <c r="J555" s="3"/>
       <c r="K555" s="3"/>
       <c r="L555" s="3"/>
     </row>
-    <row r="556" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="556" spans="9:12">
       <c r="I556" s="3"/>
       <c r="J556" s="3"/>
       <c r="K556" s="3"/>
       <c r="L556" s="3"/>
     </row>
-    <row r="557" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="557" spans="9:12">
       <c r="I557" s="3"/>
       <c r="J557" s="3"/>
       <c r="K557" s="3"/>
       <c r="L557" s="3"/>
     </row>
-    <row r="558" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="558" spans="9:12">
       <c r="I558" s="3"/>
       <c r="J558" s="3"/>
       <c r="K558" s="3"/>
       <c r="L558" s="3"/>
     </row>
-    <row r="559" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="559" spans="9:12">
       <c r="I559" s="3"/>
       <c r="J559" s="3"/>
       <c r="K559" s="3"/>
       <c r="L559" s="3"/>
     </row>
-    <row r="560" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="560" spans="9:12">
       <c r="I560" s="3"/>
       <c r="J560" s="3"/>
       <c r="K560" s="3"/>
       <c r="L560" s="3"/>
     </row>
-    <row r="561" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="561" spans="9:12">
       <c r="I561" s="3"/>
       <c r="J561" s="3"/>
       <c r="K561" s="3"/>
       <c r="L561" s="3"/>
     </row>
-    <row r="562" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="562" spans="9:12">
       <c r="I562" s="3"/>
       <c r="J562" s="3"/>
       <c r="K562" s="3"/>
       <c r="L562" s="3"/>
     </row>
-    <row r="563" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="563" spans="9:12">
       <c r="I563" s="3"/>
       <c r="J563" s="3"/>
       <c r="K563" s="3"/>
       <c r="L563" s="3"/>
     </row>
-    <row r="564" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="564" spans="9:12">
       <c r="I564" s="3"/>
       <c r="J564" s="3"/>
       <c r="K564" s="3"/>
       <c r="L564" s="3"/>
     </row>
-    <row r="565" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="565" spans="9:12">
       <c r="I565" s="3"/>
       <c r="J565" s="3"/>
       <c r="K565" s="3"/>
       <c r="L565" s="3"/>
     </row>
-    <row r="566" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="566" spans="9:12">
       <c r="I566" s="3"/>
       <c r="J566" s="3"/>
       <c r="K566" s="3"/>
       <c r="L566" s="3"/>
     </row>
-    <row r="567" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="567" spans="9:12">
       <c r="I567" s="3"/>
       <c r="J567" s="3"/>
       <c r="K567" s="3"/>
       <c r="L567" s="3"/>
     </row>
-    <row r="568" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="568" spans="9:12">
       <c r="I568" s="3"/>
       <c r="J568" s="3"/>
       <c r="K568" s="3"/>
       <c r="L568" s="3"/>
     </row>
-    <row r="569" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="569" spans="9:12">
       <c r="I569" s="3"/>
       <c r="J569" s="3"/>
       <c r="K569" s="3"/>
       <c r="L569" s="3"/>
     </row>
-    <row r="570" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="570" spans="9:12">
       <c r="I570" s="3"/>
       <c r="J570" s="3"/>
       <c r="K570" s="3"/>
       <c r="L570" s="3"/>
     </row>
-    <row r="571" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="571" spans="9:12">
       <c r="I571" s="3"/>
       <c r="J571" s="3"/>
       <c r="K571" s="3"/>
       <c r="L571" s="3"/>
     </row>
-    <row r="572" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="572" spans="9:12">
       <c r="I572" s="3"/>
       <c r="J572" s="3"/>
       <c r="K572" s="3"/>
       <c r="L572" s="3"/>
     </row>
-    <row r="573" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="573" spans="9:12">
       <c r="I573" s="3"/>
       <c r="J573" s="3"/>
       <c r="K573" s="3"/>
       <c r="L573" s="3"/>
     </row>
-    <row r="574" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="574" spans="9:12">
       <c r="I574" s="3"/>
       <c r="J574" s="3"/>
       <c r="K574" s="3"/>
       <c r="L574" s="3"/>
     </row>
-    <row r="575" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="575" spans="9:12">
       <c r="I575" s="3"/>
       <c r="J575" s="3"/>
       <c r="K575" s="3"/>
       <c r="L575" s="3"/>
     </row>
-    <row r="576" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="576" spans="9:12">
       <c r="I576" s="3"/>
       <c r="J576" s="3"/>
       <c r="K576" s="3"/>
       <c r="L576" s="3"/>
     </row>
-    <row r="577" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="577" spans="9:12">
       <c r="I577" s="3"/>
       <c r="J577" s="3"/>
       <c r="K577" s="3"/>
       <c r="L577" s="3"/>
     </row>
-    <row r="578" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="578" spans="9:12">
       <c r="I578" s="3"/>
       <c r="J578" s="3"/>
       <c r="K578" s="3"/>
       <c r="L578" s="3"/>
     </row>
-    <row r="579" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="579" spans="9:12">
       <c r="I579" s="3"/>
       <c r="J579" s="3"/>
       <c r="K579" s="3"/>
       <c r="L579" s="3"/>
     </row>
-    <row r="580" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="580" spans="9:12">
       <c r="I580" s="3"/>
       <c r="J580" s="3"/>
       <c r="K580" s="3"/>
       <c r="L580" s="3"/>
     </row>
-    <row r="581" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="581" spans="9:12">
       <c r="I581" s="3"/>
       <c r="J581" s="3"/>
       <c r="K581" s="3"/>
       <c r="L581" s="3"/>
     </row>
-    <row r="582" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="582" spans="9:12">
       <c r="I582" s="3"/>
       <c r="J582" s="3"/>
       <c r="K582" s="3"/>
       <c r="L582" s="3"/>
     </row>
-    <row r="583" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="583" spans="9:12">
       <c r="I583" s="3"/>
       <c r="J583" s="3"/>
       <c r="K583" s="3"/>
       <c r="L583" s="3"/>
     </row>
-    <row r="584" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="584" spans="9:12">
       <c r="I584" s="3"/>
       <c r="J584" s="3"/>
       <c r="K584" s="3"/>
       <c r="L584" s="3"/>
     </row>
-    <row r="585" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="585" spans="9:12">
       <c r="I585" s="3"/>
       <c r="J585" s="3"/>
       <c r="K585" s="3"/>
       <c r="L585" s="3"/>
     </row>
-    <row r="586" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="586" spans="9:12">
       <c r="I586" s="3"/>
       <c r="J586" s="3"/>
       <c r="K586" s="3"/>
       <c r="L586" s="3"/>
     </row>
-    <row r="587" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="587" spans="9:12">
       <c r="I587" s="3"/>
       <c r="J587" s="3"/>
       <c r="K587" s="3"/>
       <c r="L587" s="3"/>
     </row>
-    <row r="588" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="588" spans="9:12">
       <c r="I588" s="3"/>
       <c r="J588" s="3"/>
       <c r="K588" s="3"/>
       <c r="L588" s="3"/>
     </row>
-    <row r="589" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="589" spans="9:12">
       <c r="I589" s="3"/>
       <c r="J589" s="3"/>
       <c r="K589" s="3"/>
       <c r="L589" s="3"/>
     </row>
-    <row r="590" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="590" spans="9:12">
       <c r="I590" s="3"/>
       <c r="J590" s="3"/>
       <c r="K590" s="3"/>
       <c r="L590" s="3"/>
     </row>
-    <row r="591" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="591" spans="9:12">
       <c r="I591" s="3"/>
       <c r="J591" s="3"/>
       <c r="K591" s="3"/>
       <c r="L591" s="3"/>
     </row>
-    <row r="592" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="592" spans="9:12">
       <c r="I592" s="3"/>
       <c r="J592" s="3"/>
       <c r="K592" s="3"/>
       <c r="L592" s="3"/>
     </row>
-    <row r="593" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="593" spans="9:12">
       <c r="I593" s="3"/>
       <c r="J593" s="3"/>
       <c r="K593" s="3"/>
       <c r="L593" s="3"/>
     </row>
-    <row r="594" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="594" spans="9:12">
       <c r="I594" s="3"/>
       <c r="J594" s="3"/>
       <c r="K594" s="3"/>
       <c r="L594" s="3"/>
     </row>
-    <row r="595" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="595" spans="9:12">
       <c r="I595" s="3"/>
       <c r="J595" s="3"/>
       <c r="K595" s="3"/>
       <c r="L595" s="3"/>
     </row>
-    <row r="596" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="596" spans="9:12">
       <c r="I596" s="3"/>
       <c r="J596" s="3"/>
       <c r="K596" s="3"/>
       <c r="L596" s="3"/>
     </row>
-    <row r="597" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="597" spans="9:12">
       <c r="I597" s="3"/>
       <c r="J597" s="3"/>
       <c r="K597" s="3"/>
       <c r="L597" s="3"/>
     </row>
-    <row r="598" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="598" spans="9:12">
       <c r="I598" s="3"/>
       <c r="J598" s="3"/>
       <c r="K598" s="3"/>
       <c r="L598" s="3"/>
     </row>
-    <row r="599" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="599" spans="9:12">
       <c r="I599" s="3"/>
       <c r="J599" s="3"/>
       <c r="K599" s="3"/>
       <c r="L599" s="3"/>
     </row>
-    <row r="600" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="600" spans="9:12">
       <c r="I600" s="3"/>
       <c r="J600" s="3"/>
       <c r="K600" s="3"/>
       <c r="L600" s="3"/>
     </row>
-    <row r="601" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="601" spans="9:12">
       <c r="I601" s="3"/>
       <c r="J601" s="3"/>
       <c r="K601" s="3"/>
       <c r="L601" s="3"/>
     </row>
-    <row r="602" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="602" spans="9:12">
       <c r="I602" s="3"/>
       <c r="J602" s="3"/>
       <c r="K602" s="3"/>
       <c r="L602" s="3"/>
     </row>
-    <row r="603" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="603" spans="9:12">
       <c r="I603" s="3"/>
       <c r="J603" s="3"/>
       <c r="K603" s="3"/>
       <c r="L603" s="3"/>
     </row>
-    <row r="604" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="604" spans="9:12">
       <c r="I604" s="3"/>
       <c r="J604" s="3"/>
       <c r="K604" s="3"/>
       <c r="L604" s="3"/>
     </row>
-    <row r="605" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="605" spans="9:12">
       <c r="I605" s="3"/>
       <c r="J605" s="3"/>
       <c r="K605" s="3"/>
       <c r="L605" s="3"/>
     </row>
-    <row r="606" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="606" spans="9:12">
       <c r="I606" s="3"/>
       <c r="J606" s="3"/>
       <c r="K606" s="3"/>
       <c r="L606" s="3"/>
     </row>
-    <row r="607" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="607" spans="9:12">
       <c r="I607" s="3"/>
       <c r="J607" s="3"/>
       <c r="K607" s="3"/>
       <c r="L607" s="3"/>
     </row>
-    <row r="608" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="608" spans="9:12">
       <c r="I608" s="3"/>
       <c r="J608" s="3"/>
       <c r="K608" s="3"/>
       <c r="L608" s="3"/>
     </row>
-    <row r="609" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="609" spans="9:12">
       <c r="I609" s="3"/>
       <c r="J609" s="3"/>
       <c r="K609" s="3"/>
       <c r="L609" s="3"/>
     </row>
-    <row r="610" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="610" spans="9:12">
       <c r="I610" s="3"/>
       <c r="J610" s="3"/>
       <c r="K610" s="3"/>
@@ -36375,8 +36376,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+  <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" showErrorMessage="1" errorTitle="Error" error="Please select blooms from dropdown list.">
           <x14:formula1>
@@ -36403,14 +36404,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -36418,7 +36419,7 @@
     <col min="4" max="4" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -36432,7 +36433,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -36446,7 +36447,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -36460,7 +36461,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -36474,7 +36475,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>61</v>
       </c>
